--- a/employee_competence_table.xlsx
+++ b/employee_competence_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\PycharmProjects\Team_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD54EB-55D9-48CD-9DC6-2450A1B9051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEEAF2-D827-4B14-89E4-DAC169E6FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{866999C5-EB3E-4C00-90EB-A04A05C5DD20}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{866999C5-EB3E-4C00-90EB-A04A05C5DD20}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/employee_competence_table.xlsx
+++ b/employee_competence_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\PycharmProjects\Team_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEEAF2-D827-4B14-89E4-DAC169E6FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D37FD-372E-47A5-880F-423DCF1EB528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{866999C5-EB3E-4C00-90EB-A04A05C5DD20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{866999C5-EB3E-4C00-90EB-A04A05C5DD20}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>E#0</t>
   </si>
@@ -93,6 +93,261 @@
   </si>
   <si>
     <t>C#3</t>
+  </si>
+  <si>
+    <t>E#15</t>
+  </si>
+  <si>
+    <t>E#16</t>
+  </si>
+  <si>
+    <t>E#17</t>
+  </si>
+  <si>
+    <t>E#18</t>
+  </si>
+  <si>
+    <t>E#19</t>
+  </si>
+  <si>
+    <t>E#20</t>
+  </si>
+  <si>
+    <t>E#21</t>
+  </si>
+  <si>
+    <t>E#22</t>
+  </si>
+  <si>
+    <t>E#23</t>
+  </si>
+  <si>
+    <t>E#24</t>
+  </si>
+  <si>
+    <t>E#25</t>
+  </si>
+  <si>
+    <t>E#26</t>
+  </si>
+  <si>
+    <t>E#27</t>
+  </si>
+  <si>
+    <t>E#28</t>
+  </si>
+  <si>
+    <t>E#29</t>
+  </si>
+  <si>
+    <t>E#30</t>
+  </si>
+  <si>
+    <t>E#31</t>
+  </si>
+  <si>
+    <t>E#32</t>
+  </si>
+  <si>
+    <t>E#33</t>
+  </si>
+  <si>
+    <t>E#34</t>
+  </si>
+  <si>
+    <t>E#35</t>
+  </si>
+  <si>
+    <t>E#36</t>
+  </si>
+  <si>
+    <t>E#37</t>
+  </si>
+  <si>
+    <t>E#38</t>
+  </si>
+  <si>
+    <t>E#39</t>
+  </si>
+  <si>
+    <t>E#40</t>
+  </si>
+  <si>
+    <t>E#41</t>
+  </si>
+  <si>
+    <t>E#42</t>
+  </si>
+  <si>
+    <t>E#43</t>
+  </si>
+  <si>
+    <t>E#44</t>
+  </si>
+  <si>
+    <t>E#45</t>
+  </si>
+  <si>
+    <t>E#46</t>
+  </si>
+  <si>
+    <t>E#47</t>
+  </si>
+  <si>
+    <t>E#48</t>
+  </si>
+  <si>
+    <t>E#49</t>
+  </si>
+  <si>
+    <t>E#50</t>
+  </si>
+  <si>
+    <t>E#51</t>
+  </si>
+  <si>
+    <t>E#52</t>
+  </si>
+  <si>
+    <t>E#53</t>
+  </si>
+  <si>
+    <t>E#54</t>
+  </si>
+  <si>
+    <t>E#55</t>
+  </si>
+  <si>
+    <t>E#56</t>
+  </si>
+  <si>
+    <t>E#57</t>
+  </si>
+  <si>
+    <t>E#58</t>
+  </si>
+  <si>
+    <t>E#59</t>
+  </si>
+  <si>
+    <t>E#60</t>
+  </si>
+  <si>
+    <t>E#61</t>
+  </si>
+  <si>
+    <t>E#62</t>
+  </si>
+  <si>
+    <t>E#63</t>
+  </si>
+  <si>
+    <t>E#64</t>
+  </si>
+  <si>
+    <t>E#65</t>
+  </si>
+  <si>
+    <t>E#66</t>
+  </si>
+  <si>
+    <t>E#67</t>
+  </si>
+  <si>
+    <t>E#68</t>
+  </si>
+  <si>
+    <t>E#69</t>
+  </si>
+  <si>
+    <t>E#70</t>
+  </si>
+  <si>
+    <t>E#71</t>
+  </si>
+  <si>
+    <t>E#72</t>
+  </si>
+  <si>
+    <t>E#73</t>
+  </si>
+  <si>
+    <t>E#74</t>
+  </si>
+  <si>
+    <t>E#75</t>
+  </si>
+  <si>
+    <t>E#76</t>
+  </si>
+  <si>
+    <t>E#77</t>
+  </si>
+  <si>
+    <t>E#78</t>
+  </si>
+  <si>
+    <t>E#79</t>
+  </si>
+  <si>
+    <t>E#80</t>
+  </si>
+  <si>
+    <t>E#81</t>
+  </si>
+  <si>
+    <t>E#82</t>
+  </si>
+  <si>
+    <t>E#83</t>
+  </si>
+  <si>
+    <t>E#84</t>
+  </si>
+  <si>
+    <t>E#85</t>
+  </si>
+  <si>
+    <t>E#86</t>
+  </si>
+  <si>
+    <t>E#87</t>
+  </si>
+  <si>
+    <t>E#88</t>
+  </si>
+  <si>
+    <t>E#89</t>
+  </si>
+  <si>
+    <t>E#90</t>
+  </si>
+  <si>
+    <t>E#91</t>
+  </si>
+  <si>
+    <t>E#92</t>
+  </si>
+  <si>
+    <t>E#93</t>
+  </si>
+  <si>
+    <t>E#94</t>
+  </si>
+  <si>
+    <t>E#95</t>
+  </si>
+  <si>
+    <t>E#96</t>
+  </si>
+  <si>
+    <t>E#97</t>
+  </si>
+  <si>
+    <t>E#98</t>
+  </si>
+  <si>
+    <t>E#99</t>
   </si>
 </sst>
 </file>
@@ -452,21 +707,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2BD79E-B4E7-408E-9347-F9F878298B02}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.765625" customWidth="1"/>
-    <col min="3" max="3" width="10.23046875" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" customWidth="1"/>
-    <col min="5" max="5" width="10.4609375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -480,259 +735,1704 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.27</v>
+        <v>9.56</v>
       </c>
       <c r="C2">
-        <v>2.13</v>
+        <v>7.56</v>
       </c>
       <c r="D2">
-        <v>5.83</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.59</v>
+        <v>3.02</v>
       </c>
       <c r="C3">
-        <v>8.2100000000000009</v>
+        <v>1.34</v>
       </c>
       <c r="D3">
-        <v>1.06</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E3">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.75</v>
+        <v>4.53</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>5.67</v>
       </c>
       <c r="D4">
-        <v>1.42</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.48</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="C5">
-        <v>5.16</v>
+        <v>3.36</v>
       </c>
       <c r="D5">
-        <v>7.09</v>
+        <v>9.23</v>
       </c>
       <c r="E5">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.5499999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="C6">
-        <v>5.74</v>
+        <v>5.98</v>
       </c>
       <c r="D6">
-        <v>8.36</v>
+        <v>6.84</v>
       </c>
       <c r="E6">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.07</v>
+        <v>8.73</v>
       </c>
       <c r="C7">
-        <v>3.28</v>
+        <v>0.27</v>
       </c>
       <c r="D7">
-        <v>2.34</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="C8">
-        <v>5.41</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="D8">
-        <v>7.73</v>
+        <v>2.6</v>
       </c>
       <c r="E8">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.89</v>
+        <v>9.99</v>
       </c>
       <c r="C9">
-        <v>1.26</v>
+        <v>5.38</v>
       </c>
       <c r="D9">
-        <v>8.16</v>
+        <v>1.78</v>
       </c>
       <c r="E9">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.5399999999999991</v>
+        <v>2.97</v>
       </c>
       <c r="C10">
-        <v>7.54</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2.02</v>
+        <v>9.73</v>
       </c>
       <c r="E10">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>7.22</v>
+        <v>3.79</v>
       </c>
       <c r="D11">
-        <v>3.25</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E11">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.68</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="C12">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="D12">
-        <v>0.94</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="E12">
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.21</v>
+        <v>9.36</v>
       </c>
       <c r="C13">
-        <v>7.01</v>
+        <v>7.69</v>
       </c>
       <c r="D13">
-        <v>6.48</v>
+        <v>3.83</v>
       </c>
       <c r="E13">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.69</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.28000000000000003</v>
+        <v>9.69</v>
       </c>
       <c r="D14">
-        <v>1.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E14">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.81</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="C15">
-        <v>5.25</v>
+        <v>3.36</v>
       </c>
       <c r="D15">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="E15">
-        <v>8.2100000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.08</v>
+        <v>6.12</v>
       </c>
       <c r="C16">
+        <v>0.94</v>
+      </c>
+      <c r="D16">
+        <v>2.92</v>
+      </c>
+      <c r="E16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>9.77</v>
+      </c>
+      <c r="C17">
+        <v>5.4</v>
+      </c>
+      <c r="D17">
+        <v>1.75</v>
+      </c>
+      <c r="E17">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>9.36</v>
+      </c>
+      <c r="C18">
+        <v>2.97</v>
+      </c>
+      <c r="D18">
+        <v>7.59</v>
+      </c>
+      <c r="E18">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2.64</v>
+      </c>
+      <c r="C19">
+        <v>2.63</v>
+      </c>
+      <c r="D19">
+        <v>1.46</v>
+      </c>
+      <c r="E19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>5.55</v>
+      </c>
+      <c r="C20">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D20">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="E20">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2.96</v>
+      </c>
+      <c r="C21">
+        <v>8.9</v>
+      </c>
+      <c r="D21">
+        <v>6.6</v>
+      </c>
+      <c r="E21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>4.41</v>
+      </c>
+      <c r="C22">
+        <v>0.03</v>
+      </c>
+      <c r="D22">
+        <v>8.18</v>
+      </c>
+      <c r="E22">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>6.02</v>
+      </c>
+      <c r="C23">
+        <v>7.35</v>
+      </c>
+      <c r="D23">
+        <v>5.05</v>
+      </c>
+      <c r="E23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>7.37</v>
+      </c>
+      <c r="C24">
+        <v>7.66</v>
+      </c>
+      <c r="D24">
+        <v>0.19</v>
+      </c>
+      <c r="E24">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>5.15</v>
+      </c>
+      <c r="C25">
+        <v>5.39</v>
+      </c>
+      <c r="D25">
+        <v>7.46</v>
+      </c>
+      <c r="E25">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>6.31</v>
+      </c>
+      <c r="C26">
+        <v>1.17</v>
+      </c>
+      <c r="D26">
+        <v>9.33</v>
+      </c>
+      <c r="E26">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C27">
+        <v>6.08</v>
+      </c>
+      <c r="D27">
+        <v>6.76</v>
+      </c>
+      <c r="E27">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>3.4</v>
+      </c>
+      <c r="C28">
+        <v>3.13</v>
+      </c>
+      <c r="D28">
+        <v>3.79</v>
+      </c>
+      <c r="E28">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>3.95</v>
+      </c>
+      <c r="C29">
+        <v>8.57</v>
+      </c>
+      <c r="D29">
+        <v>5.38</v>
+      </c>
+      <c r="E29">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>6.34</v>
+      </c>
+      <c r="C30">
+        <v>3.8</v>
+      </c>
+      <c r="D30">
+        <v>5.38</v>
+      </c>
+      <c r="E30">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>3.45</v>
+      </c>
+      <c r="C31">
+        <v>2.48</v>
+      </c>
+      <c r="D31">
+        <v>8.75</v>
+      </c>
+      <c r="E31">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>7.16</v>
+      </c>
+      <c r="C32">
+        <v>6.45</v>
+      </c>
+      <c r="D32">
+        <v>6.21</v>
+      </c>
+      <c r="E32">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>5.6</v>
+      </c>
+      <c r="C33">
+        <v>1.68</v>
+      </c>
+      <c r="D33">
+        <v>5.93</v>
+      </c>
+      <c r="E33">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1.41</v>
+      </c>
+      <c r="C34">
+        <v>2.58</v>
+      </c>
+      <c r="D34">
+        <v>3.14</v>
+      </c>
+      <c r="E34">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>6.37</v>
+      </c>
+      <c r="C35">
+        <v>5.28</v>
+      </c>
+      <c r="D35">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E35">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>7.11</v>
+      </c>
+      <c r="C36">
+        <v>9.86</v>
+      </c>
+      <c r="D36">
+        <v>8.69</v>
+      </c>
+      <c r="E36">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C37">
+        <v>3.38</v>
+      </c>
+      <c r="D37">
+        <v>5.98</v>
+      </c>
+      <c r="E37">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>5.95</v>
+      </c>
+      <c r="C38">
+        <v>2.36</v>
+      </c>
+      <c r="D38">
+        <v>5.34</v>
+      </c>
+      <c r="E38">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>4.72</v>
+      </c>
+      <c r="C39">
+        <v>2.8</v>
+      </c>
+      <c r="D39">
+        <v>1.77</v>
+      </c>
+      <c r="E39">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>2.21</v>
+      </c>
+      <c r="C40">
+        <v>9.81</v>
+      </c>
+      <c r="D40">
+        <v>5.24</v>
+      </c>
+      <c r="E40">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.59</v>
+      </c>
+      <c r="E41">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>5.59</v>
+      </c>
+      <c r="C42">
+        <v>3.56</v>
+      </c>
+      <c r="D42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E42">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>2.99</v>
+      </c>
+      <c r="C43">
+        <v>8.08</v>
+      </c>
+      <c r="D43">
+        <v>9.69</v>
+      </c>
+      <c r="E43">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0.71</v>
+      </c>
+      <c r="C44">
+        <v>6.62</v>
+      </c>
+      <c r="D44">
+        <v>0.79</v>
+      </c>
+      <c r="E44">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C45">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D45">
+        <v>1.04</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>1.19</v>
+      </c>
+      <c r="C46">
+        <v>9.92</v>
+      </c>
+      <c r="D46">
+        <v>2.52</v>
+      </c>
+      <c r="E46">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0.81</v>
+      </c>
+      <c r="C47">
+        <v>0.08</v>
+      </c>
+      <c r="D47">
+        <v>4.55</v>
+      </c>
+      <c r="E47">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>3.97</v>
+      </c>
+      <c r="C48">
+        <v>5.14</v>
+      </c>
+      <c r="D48">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E48">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>5.22</v>
+      </c>
+      <c r="C49">
+        <v>0.71</v>
+      </c>
+      <c r="D49">
+        <v>0.97</v>
+      </c>
+      <c r="E49">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>6.79</v>
+      </c>
+      <c r="C50">
+        <v>1.06</v>
+      </c>
+      <c r="D50">
+        <v>7.77</v>
+      </c>
+      <c r="E50">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>7.11</v>
+      </c>
+      <c r="C51">
+        <v>6.01</v>
+      </c>
+      <c r="D51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E51">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>3.45</v>
+      </c>
+      <c r="C52">
+        <v>4.72</v>
+      </c>
+      <c r="D52">
+        <v>2.09</v>
+      </c>
+      <c r="E52">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>9.84</v>
+      </c>
+      <c r="C53">
+        <v>0.43</v>
+      </c>
+      <c r="D53">
+        <v>4.91</v>
+      </c>
+      <c r="E53">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>8.25</v>
+      </c>
+      <c r="C54">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D54">
+        <v>8.94</v>
+      </c>
+      <c r="E54">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1.91</v>
+      </c>
+      <c r="C55">
+        <v>6.32</v>
+      </c>
+      <c r="D55">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E55">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>8.85</v>
+      </c>
+      <c r="C56">
+        <v>8.93</v>
+      </c>
+      <c r="D56">
+        <v>0.41</v>
+      </c>
+      <c r="E56">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>2.25</v>
+      </c>
+      <c r="C57">
+        <v>1.55</v>
+      </c>
+      <c r="D57">
+        <v>5.17</v>
+      </c>
+      <c r="E57">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>2.1</v>
+      </c>
+      <c r="C58">
+        <v>3.68</v>
+      </c>
+      <c r="D58">
+        <v>6.72</v>
+      </c>
+      <c r="E58">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>3.87</v>
+      </c>
+      <c r="C59">
+        <v>4.42</v>
+      </c>
+      <c r="D59">
+        <v>9.56</v>
+      </c>
+      <c r="E59">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>8.52</v>
+      </c>
+      <c r="C60">
+        <v>9.33</v>
+      </c>
+      <c r="D60">
+        <v>4.38</v>
+      </c>
+      <c r="E60">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C61">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D61">
+        <v>3.82</v>
+      </c>
+      <c r="E61">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>2.59</v>
+      </c>
+      <c r="C62">
+        <v>3.99</v>
+      </c>
+      <c r="D62">
+        <v>5.17</v>
+      </c>
+      <c r="E62">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>1.36</v>
+      </c>
+      <c r="C63">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D63">
+        <v>1.69</v>
+      </c>
+      <c r="E63">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>8.58</v>
+      </c>
+      <c r="C64">
+        <v>4.62</v>
+      </c>
+      <c r="D64">
+        <v>6.7</v>
+      </c>
+      <c r="E64">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>2.94</v>
+      </c>
+      <c r="C65">
+        <v>5.49</v>
+      </c>
+      <c r="D65">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E65">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C66">
+        <v>3.31</v>
+      </c>
+      <c r="D66">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E66">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>1.32</v>
+      </c>
+      <c r="C67">
+        <v>5.47</v>
+      </c>
+      <c r="D67">
+        <v>5.16</v>
+      </c>
+      <c r="E67">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>6.16</v>
+      </c>
+      <c r="C68">
+        <v>2.42</v>
+      </c>
+      <c r="D68">
+        <v>6.36</v>
+      </c>
+      <c r="E68">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>4.12</v>
+      </c>
+      <c r="C69">
+        <v>4.29</v>
+      </c>
+      <c r="D69">
+        <v>0.76</v>
+      </c>
+      <c r="E69">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>1.34</v>
+      </c>
+      <c r="C70">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D70">
+        <v>3.81</v>
+      </c>
+      <c r="E70">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>1.27</v>
+      </c>
+      <c r="C71">
+        <v>7.85</v>
+      </c>
+      <c r="D71">
+        <v>8.07</v>
+      </c>
+      <c r="E71">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>0.86</v>
+      </c>
+      <c r="C72">
+        <v>6.1</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>3.11</v>
+      </c>
+      <c r="C73">
+        <v>8.08</v>
+      </c>
+      <c r="D73">
+        <v>6.53</v>
+      </c>
+      <c r="E73">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>5.3</v>
+      </c>
+      <c r="C74">
+        <v>6.41</v>
+      </c>
+      <c r="D74">
+        <v>5.34</v>
+      </c>
+      <c r="E74">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>2.77</v>
+      </c>
+      <c r="C75">
+        <v>6.62</v>
+      </c>
+      <c r="D75">
+        <v>3.31</v>
+      </c>
+      <c r="E75">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C76">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D76">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E76">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3.73</v>
+      </c>
+      <c r="C77">
+        <v>0.23</v>
+      </c>
+      <c r="D77">
+        <v>2.31</v>
+      </c>
+      <c r="E77">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>8.41</v>
+      </c>
+      <c r="C78">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D78">
+        <v>5.84</v>
+      </c>
+      <c r="E78">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>2.65</v>
+      </c>
+      <c r="C79">
+        <v>3.29</v>
+      </c>
+      <c r="D79">
+        <v>7.49</v>
+      </c>
+      <c r="E79">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C80">
+        <v>3.01</v>
+      </c>
+      <c r="D80">
+        <v>9.43</v>
+      </c>
+      <c r="E80">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>7.57</v>
+      </c>
+      <c r="C81">
+        <v>9.89</v>
+      </c>
+      <c r="D81">
+        <v>9.16</v>
+      </c>
+      <c r="E81">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>2.37</v>
+      </c>
+      <c r="C82">
+        <v>6.6</v>
+      </c>
+      <c r="D82">
         <v>7.83</v>
       </c>
-      <c r="D16">
-        <v>3.9</v>
-      </c>
-      <c r="E16">
-        <v>1.97</v>
+      <c r="E82">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>5.32</v>
+      </c>
+      <c r="C83">
+        <v>6.47</v>
+      </c>
+      <c r="D83">
+        <v>0.03</v>
+      </c>
+      <c r="E83">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>9.56</v>
+      </c>
+      <c r="C84">
+        <v>3.86</v>
+      </c>
+      <c r="D84">
+        <v>0.48</v>
+      </c>
+      <c r="E84">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>3.99</v>
+      </c>
+      <c r="C85">
+        <v>3.54</v>
+      </c>
+      <c r="D85">
+        <v>3.31</v>
+      </c>
+      <c r="E85">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>5.98</v>
+      </c>
+      <c r="C86">
+        <v>5.81</v>
+      </c>
+      <c r="D86">
+        <v>1.41</v>
+      </c>
+      <c r="E86">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>2.74</v>
+      </c>
+      <c r="C87">
+        <v>3.62</v>
+      </c>
+      <c r="D87">
+        <v>5.29</v>
+      </c>
+      <c r="E87">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C88">
+        <v>0.94</v>
+      </c>
+      <c r="D88">
+        <v>9.4</v>
+      </c>
+      <c r="E88">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>2.5</v>
+      </c>
+      <c r="C89">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D89">
+        <v>4.38</v>
+      </c>
+      <c r="E89">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>7.57</v>
+      </c>
+      <c r="C90">
+        <v>7.54</v>
+      </c>
+      <c r="D90">
+        <v>0.3</v>
+      </c>
+      <c r="E90">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>1.54</v>
+      </c>
+      <c r="C91">
+        <v>8.24</v>
+      </c>
+      <c r="D91">
+        <v>1.43</v>
+      </c>
+      <c r="E91">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C92">
+        <v>2.19</v>
+      </c>
+      <c r="D92">
+        <v>1.17</v>
+      </c>
+      <c r="E92">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>2.67</v>
+      </c>
+      <c r="C93">
+        <v>6.43</v>
+      </c>
+      <c r="D93">
+        <v>9.68</v>
+      </c>
+      <c r="E93">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>1.94</v>
+      </c>
+      <c r="C94">
+        <v>6.99</v>
+      </c>
+      <c r="D94">
+        <v>3.31</v>
+      </c>
+      <c r="E94">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>8.76</v>
+      </c>
+      <c r="C95">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D95">
+        <v>8.44</v>
+      </c>
+      <c r="E95">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>5.05</v>
+      </c>
+      <c r="C96">
+        <v>7.73</v>
+      </c>
+      <c r="D96">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E96">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>3.38</v>
+      </c>
+      <c r="C97">
+        <v>5.79</v>
+      </c>
+      <c r="D97">
+        <v>7.61</v>
+      </c>
+      <c r="E97">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>2.37</v>
+      </c>
+      <c r="C98">
+        <v>7.35</v>
+      </c>
+      <c r="D98">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E98">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>5.34</v>
+      </c>
+      <c r="C99">
+        <v>9.11</v>
+      </c>
+      <c r="D99">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E99">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>6.22</v>
+      </c>
+      <c r="C100">
+        <v>7.71</v>
+      </c>
+      <c r="D100">
+        <v>7.59</v>
+      </c>
+      <c r="E100">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>5.28</v>
+      </c>
+      <c r="C101">
+        <v>9.92</v>
+      </c>
+      <c r="D101">
+        <v>4.74</v>
+      </c>
+      <c r="E101">
+        <v>3.21</v>
       </c>
     </row>
   </sheetData>
